--- a/va_facility_data_2025-02-20/Valley Stream VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Valley%20Stream%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Valley Stream VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Valley%20Stream%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R24f2d8e427de475e99cea5f87fd3a476"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0f4f695569a94cc99e81d0e7c4ee15fc"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4b854f3a4dc145de80535f0bc8fe1c95"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R242290fc61b7445ca110042bd5e421a1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5131d8f17b65465a8b108ed7464c7b50"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd71f45e40f1947f69bf55a5efedc8295"/>
   </x:sheets>
 </x:workbook>
 </file>
